--- a/Dependents.xlsx
+++ b/Dependents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start-up" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Last Cumulative</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>No Investment in Avadh SEZ</t>
+  </si>
+  <si>
+    <t>Value of Diploma Course in Marketing</t>
+  </si>
+  <si>
+    <t>Ashok-Harraiya</t>
   </si>
 </sst>
 </file>
@@ -652,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,7 +723,7 @@
         <v>42159</v>
       </c>
       <c r="B7" s="2">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -771,7 +777,7 @@
       </c>
       <c r="B17" s="2">
         <f>SUM(B3:B16)</f>
-        <v>12850</v>
+        <v>13050</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -780,7 +786,7 @@
       </c>
       <c r="B18" s="2">
         <f>B1+B17</f>
-        <v>24450</v>
+        <v>24650</v>
       </c>
     </row>
   </sheetData>
@@ -793,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,16 +920,25 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="30">
       <c r="A6" s="3">
         <v>42128</v>
       </c>
       <c r="B6" s="2">
         <v>900</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>20000</v>
+      </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -939,8 +954,11 @@
       </c>
     </row>
     <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>9060</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
@@ -1022,11 +1040,11 @@
       </c>
       <c r="B17" s="2">
         <f>SUM(B3:B16)</f>
-        <v>22500</v>
+        <v>31560</v>
       </c>
       <c r="R17" s="2">
         <f>SUM(R2:R16)</f>
-        <v>65650</v>
+        <v>85650</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1035,7 +1053,7 @@
       </c>
       <c r="B18" s="2">
         <f>B1+B17</f>
-        <v>33530</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1044,7 +1062,7 @@
       </c>
       <c r="B20" s="2">
         <f>B18+R17</f>
-        <v>99180</v>
+        <v>128240</v>
       </c>
     </row>
   </sheetData>
